--- a/Backup/Grade Card - Backup.xlsx
+++ b/Backup/Grade Card - Backup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Chitnis\Videos\Results Genetaor\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C0A915-37F9-4CD2-B573-7C154D007FA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D70EB4-3B72-4023-BFE5-62958018F6AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <t>DECEMBER 2018</t>
   </si>
   <si>
-    <t>MMS18-20/20</t>
+    <t>MMS18-20/1</t>
   </si>
 </sst>
 </file>
@@ -504,20 +504,20 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>19049</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="Picture 7">
+            <xdr:cNvPr id="5" name="Picture 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8854B5-4655-43C8-8E81-122493EAE494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A67F1B-C1FA-4994-8EC0-9370F76DEED6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -525,7 +525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2098"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2112"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -539,8 +539,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7353300" y="1295399"/>
-              <a:ext cx="1181100" cy="1047751"/>
+              <a:off x="7353300" y="1304925"/>
+              <a:ext cx="1181100" cy="1028700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1901,6 +1901,110 @@
             <v>NA</v>
           </cell>
         </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>MMS18-20/121</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>MMS18-20/122</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>MMS18-20/123</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>MMS18-20/124</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>MMS18-20/125</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>MMS18-20/126</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>MMS18-20/127</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>MMS18-20/128</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>MMS18-20/129</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>MMS18-20/130</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>MMS18-20/131</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>MMS18-20/132</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>MMS18-20/133</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -26633,6 +26737,2216 @@
           </cell>
           <cell r="BP122" t="str">
             <v>65-69.99</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>MMS18-20/121</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+          <cell r="E123">
+            <v>0</v>
+          </cell>
+          <cell r="F123" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G123" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H123">
+            <v>4</v>
+          </cell>
+          <cell r="I123">
+            <v>0</v>
+          </cell>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
+          <cell r="K123">
+            <v>0</v>
+          </cell>
+          <cell r="L123">
+            <v>0</v>
+          </cell>
+          <cell r="M123" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N123" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O123">
+            <v>4</v>
+          </cell>
+          <cell r="P123">
+            <v>0</v>
+          </cell>
+          <cell r="Q123">
+            <v>0</v>
+          </cell>
+          <cell r="R123">
+            <v>0</v>
+          </cell>
+          <cell r="S123">
+            <v>0</v>
+          </cell>
+          <cell r="T123" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U123" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V123">
+            <v>4</v>
+          </cell>
+          <cell r="W123">
+            <v>0</v>
+          </cell>
+          <cell r="X123">
+            <v>28</v>
+          </cell>
+          <cell r="Y123">
+            <v>37</v>
+          </cell>
+          <cell r="Z123">
+            <v>65</v>
+          </cell>
+          <cell r="AA123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC123">
+            <v>4</v>
+          </cell>
+          <cell r="AD123">
+            <v>28</v>
+          </cell>
+          <cell r="AE123">
+            <v>28</v>
+          </cell>
+          <cell r="AF123">
+            <v>37</v>
+          </cell>
+          <cell r="AG123">
+            <v>65</v>
+          </cell>
+          <cell r="AH123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ123">
+            <v>4</v>
+          </cell>
+          <cell r="AK123">
+            <v>28</v>
+          </cell>
+          <cell r="AL123">
+            <v>28</v>
+          </cell>
+          <cell r="AM123">
+            <v>37</v>
+          </cell>
+          <cell r="AN123">
+            <v>65</v>
+          </cell>
+          <cell r="AO123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ123">
+            <v>4</v>
+          </cell>
+          <cell r="AR123">
+            <v>28</v>
+          </cell>
+          <cell r="AS123">
+            <v>28</v>
+          </cell>
+          <cell r="AT123">
+            <v>37</v>
+          </cell>
+          <cell r="AU123">
+            <v>65</v>
+          </cell>
+          <cell r="AV123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX123">
+            <v>4</v>
+          </cell>
+          <cell r="AY123">
+            <v>28</v>
+          </cell>
+          <cell r="AZ123">
+            <v>28</v>
+          </cell>
+          <cell r="BA123">
+            <v>37</v>
+          </cell>
+          <cell r="BB123">
+            <v>65</v>
+          </cell>
+          <cell r="BC123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD123" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>MMS18-20/122</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+          <cell r="E124">
+            <v>0</v>
+          </cell>
+          <cell r="F124" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G124" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H124">
+            <v>4</v>
+          </cell>
+          <cell r="I124">
+            <v>0</v>
+          </cell>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
+          <cell r="K124">
+            <v>0</v>
+          </cell>
+          <cell r="L124">
+            <v>0</v>
+          </cell>
+          <cell r="M124" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N124" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O124">
+            <v>4</v>
+          </cell>
+          <cell r="P124">
+            <v>0</v>
+          </cell>
+          <cell r="Q124">
+            <v>0</v>
+          </cell>
+          <cell r="R124">
+            <v>0</v>
+          </cell>
+          <cell r="S124">
+            <v>0</v>
+          </cell>
+          <cell r="T124" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U124" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V124">
+            <v>4</v>
+          </cell>
+          <cell r="W124">
+            <v>0</v>
+          </cell>
+          <cell r="X124">
+            <v>30</v>
+          </cell>
+          <cell r="Y124">
+            <v>40</v>
+          </cell>
+          <cell r="Z124">
+            <v>70</v>
+          </cell>
+          <cell r="AA124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC124">
+            <v>4</v>
+          </cell>
+          <cell r="AD124">
+            <v>32</v>
+          </cell>
+          <cell r="AE124">
+            <v>30</v>
+          </cell>
+          <cell r="AF124">
+            <v>40</v>
+          </cell>
+          <cell r="AG124">
+            <v>70</v>
+          </cell>
+          <cell r="AH124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ124">
+            <v>4</v>
+          </cell>
+          <cell r="AK124">
+            <v>32</v>
+          </cell>
+          <cell r="AL124">
+            <v>30</v>
+          </cell>
+          <cell r="AM124">
+            <v>40</v>
+          </cell>
+          <cell r="AN124">
+            <v>70</v>
+          </cell>
+          <cell r="AO124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ124">
+            <v>4</v>
+          </cell>
+          <cell r="AR124">
+            <v>32</v>
+          </cell>
+          <cell r="AS124">
+            <v>30</v>
+          </cell>
+          <cell r="AT124">
+            <v>40</v>
+          </cell>
+          <cell r="AU124">
+            <v>70</v>
+          </cell>
+          <cell r="AV124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX124">
+            <v>4</v>
+          </cell>
+          <cell r="AY124">
+            <v>32</v>
+          </cell>
+          <cell r="AZ124">
+            <v>30</v>
+          </cell>
+          <cell r="BA124">
+            <v>40</v>
+          </cell>
+          <cell r="BB124">
+            <v>70</v>
+          </cell>
+          <cell r="BC124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD124" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>MMS18-20/123</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C125">
+            <v>0</v>
+          </cell>
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+          <cell r="E125">
+            <v>0</v>
+          </cell>
+          <cell r="F125" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G125" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H125">
+            <v>4</v>
+          </cell>
+          <cell r="I125">
+            <v>0</v>
+          </cell>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
+          <cell r="K125">
+            <v>0</v>
+          </cell>
+          <cell r="L125">
+            <v>0</v>
+          </cell>
+          <cell r="M125" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N125" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O125">
+            <v>4</v>
+          </cell>
+          <cell r="P125">
+            <v>0</v>
+          </cell>
+          <cell r="Q125">
+            <v>0</v>
+          </cell>
+          <cell r="R125">
+            <v>0</v>
+          </cell>
+          <cell r="S125">
+            <v>0</v>
+          </cell>
+          <cell r="T125" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U125" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V125">
+            <v>4</v>
+          </cell>
+          <cell r="W125">
+            <v>0</v>
+          </cell>
+          <cell r="X125">
+            <v>25</v>
+          </cell>
+          <cell r="Y125">
+            <v>35</v>
+          </cell>
+          <cell r="Z125">
+            <v>60</v>
+          </cell>
+          <cell r="AA125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AB125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AC125">
+            <v>4</v>
+          </cell>
+          <cell r="AD125">
+            <v>24</v>
+          </cell>
+          <cell r="AE125">
+            <v>25</v>
+          </cell>
+          <cell r="AF125">
+            <v>35</v>
+          </cell>
+          <cell r="AG125">
+            <v>60</v>
+          </cell>
+          <cell r="AH125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AI125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AJ125">
+            <v>4</v>
+          </cell>
+          <cell r="AK125">
+            <v>24</v>
+          </cell>
+          <cell r="AL125">
+            <v>25</v>
+          </cell>
+          <cell r="AM125">
+            <v>35</v>
+          </cell>
+          <cell r="AN125">
+            <v>60</v>
+          </cell>
+          <cell r="AO125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AP125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AQ125">
+            <v>4</v>
+          </cell>
+          <cell r="AR125">
+            <v>24</v>
+          </cell>
+          <cell r="AS125">
+            <v>25</v>
+          </cell>
+          <cell r="AT125">
+            <v>35</v>
+          </cell>
+          <cell r="AU125">
+            <v>60</v>
+          </cell>
+          <cell r="AV125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AW125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AX125">
+            <v>4</v>
+          </cell>
+          <cell r="AY125">
+            <v>24</v>
+          </cell>
+          <cell r="AZ125">
+            <v>25</v>
+          </cell>
+          <cell r="BA125">
+            <v>35</v>
+          </cell>
+          <cell r="BB125">
+            <v>60</v>
+          </cell>
+          <cell r="BC125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="BD125" t="str">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>MMS18-20/124</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C126">
+            <v>0</v>
+          </cell>
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+          <cell r="E126">
+            <v>0</v>
+          </cell>
+          <cell r="F126" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G126" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H126">
+            <v>4</v>
+          </cell>
+          <cell r="I126">
+            <v>0</v>
+          </cell>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
+          <cell r="K126">
+            <v>0</v>
+          </cell>
+          <cell r="L126">
+            <v>0</v>
+          </cell>
+          <cell r="M126" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N126" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O126">
+            <v>4</v>
+          </cell>
+          <cell r="P126">
+            <v>0</v>
+          </cell>
+          <cell r="Q126">
+            <v>0</v>
+          </cell>
+          <cell r="R126">
+            <v>0</v>
+          </cell>
+          <cell r="S126">
+            <v>0</v>
+          </cell>
+          <cell r="T126" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U126" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V126">
+            <v>4</v>
+          </cell>
+          <cell r="W126">
+            <v>0</v>
+          </cell>
+          <cell r="X126">
+            <v>32</v>
+          </cell>
+          <cell r="Y126">
+            <v>42</v>
+          </cell>
+          <cell r="Z126">
+            <v>74</v>
+          </cell>
+          <cell r="AA126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC126">
+            <v>4</v>
+          </cell>
+          <cell r="AD126">
+            <v>32</v>
+          </cell>
+          <cell r="AE126">
+            <v>32</v>
+          </cell>
+          <cell r="AF126">
+            <v>42</v>
+          </cell>
+          <cell r="AG126">
+            <v>74</v>
+          </cell>
+          <cell r="AH126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ126">
+            <v>4</v>
+          </cell>
+          <cell r="AK126">
+            <v>32</v>
+          </cell>
+          <cell r="AL126">
+            <v>32</v>
+          </cell>
+          <cell r="AM126">
+            <v>42</v>
+          </cell>
+          <cell r="AN126">
+            <v>74</v>
+          </cell>
+          <cell r="AO126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ126">
+            <v>4</v>
+          </cell>
+          <cell r="AR126">
+            <v>32</v>
+          </cell>
+          <cell r="AS126">
+            <v>32</v>
+          </cell>
+          <cell r="AT126">
+            <v>42</v>
+          </cell>
+          <cell r="AU126">
+            <v>74</v>
+          </cell>
+          <cell r="AV126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX126">
+            <v>4</v>
+          </cell>
+          <cell r="AY126">
+            <v>32</v>
+          </cell>
+          <cell r="AZ126">
+            <v>32</v>
+          </cell>
+          <cell r="BA126">
+            <v>42</v>
+          </cell>
+          <cell r="BB126">
+            <v>74</v>
+          </cell>
+          <cell r="BC126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD126" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>MMS18-20/125</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C127">
+            <v>0</v>
+          </cell>
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+          <cell r="E127">
+            <v>0</v>
+          </cell>
+          <cell r="F127" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G127" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H127">
+            <v>4</v>
+          </cell>
+          <cell r="I127">
+            <v>0</v>
+          </cell>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
+          <cell r="K127">
+            <v>0</v>
+          </cell>
+          <cell r="L127">
+            <v>0</v>
+          </cell>
+          <cell r="M127" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N127" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O127">
+            <v>4</v>
+          </cell>
+          <cell r="P127">
+            <v>0</v>
+          </cell>
+          <cell r="Q127">
+            <v>0</v>
+          </cell>
+          <cell r="R127">
+            <v>0</v>
+          </cell>
+          <cell r="S127">
+            <v>0</v>
+          </cell>
+          <cell r="T127" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U127" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V127">
+            <v>4</v>
+          </cell>
+          <cell r="W127">
+            <v>0</v>
+          </cell>
+          <cell r="X127">
+            <v>31</v>
+          </cell>
+          <cell r="Y127">
+            <v>45</v>
+          </cell>
+          <cell r="Z127">
+            <v>76</v>
+          </cell>
+          <cell r="AA127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AB127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AC127">
+            <v>4</v>
+          </cell>
+          <cell r="AD127">
+            <v>36</v>
+          </cell>
+          <cell r="AE127">
+            <v>31</v>
+          </cell>
+          <cell r="AF127">
+            <v>45</v>
+          </cell>
+          <cell r="AG127">
+            <v>76</v>
+          </cell>
+          <cell r="AH127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AI127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AJ127">
+            <v>4</v>
+          </cell>
+          <cell r="AK127">
+            <v>36</v>
+          </cell>
+          <cell r="AL127">
+            <v>31</v>
+          </cell>
+          <cell r="AM127">
+            <v>45</v>
+          </cell>
+          <cell r="AN127">
+            <v>76</v>
+          </cell>
+          <cell r="AO127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AP127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AQ127">
+            <v>4</v>
+          </cell>
+          <cell r="AR127">
+            <v>36</v>
+          </cell>
+          <cell r="AS127">
+            <v>31</v>
+          </cell>
+          <cell r="AT127">
+            <v>45</v>
+          </cell>
+          <cell r="AU127">
+            <v>76</v>
+          </cell>
+          <cell r="AV127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AW127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AX127">
+            <v>4</v>
+          </cell>
+          <cell r="AY127">
+            <v>36</v>
+          </cell>
+          <cell r="AZ127">
+            <v>31</v>
+          </cell>
+          <cell r="BA127">
+            <v>45</v>
+          </cell>
+          <cell r="BB127">
+            <v>76</v>
+          </cell>
+          <cell r="BC127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="BD127" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>MMS18-20/126</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C128">
+            <v>0</v>
+          </cell>
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+          <cell r="E128">
+            <v>0</v>
+          </cell>
+          <cell r="F128" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G128" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H128">
+            <v>4</v>
+          </cell>
+          <cell r="I128">
+            <v>0</v>
+          </cell>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
+          <cell r="K128">
+            <v>0</v>
+          </cell>
+          <cell r="L128">
+            <v>0</v>
+          </cell>
+          <cell r="M128" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N128" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O128">
+            <v>4</v>
+          </cell>
+          <cell r="P128">
+            <v>0</v>
+          </cell>
+          <cell r="Q128">
+            <v>0</v>
+          </cell>
+          <cell r="R128">
+            <v>0</v>
+          </cell>
+          <cell r="S128">
+            <v>0</v>
+          </cell>
+          <cell r="T128" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U128" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V128">
+            <v>4</v>
+          </cell>
+          <cell r="W128">
+            <v>0</v>
+          </cell>
+          <cell r="X128">
+            <v>33</v>
+          </cell>
+          <cell r="Y128">
+            <v>36</v>
+          </cell>
+          <cell r="Z128">
+            <v>69</v>
+          </cell>
+          <cell r="AA128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC128">
+            <v>4</v>
+          </cell>
+          <cell r="AD128">
+            <v>28</v>
+          </cell>
+          <cell r="AE128">
+            <v>33</v>
+          </cell>
+          <cell r="AF128">
+            <v>36</v>
+          </cell>
+          <cell r="AG128">
+            <v>69</v>
+          </cell>
+          <cell r="AH128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ128">
+            <v>4</v>
+          </cell>
+          <cell r="AK128">
+            <v>28</v>
+          </cell>
+          <cell r="AL128">
+            <v>33</v>
+          </cell>
+          <cell r="AM128">
+            <v>36</v>
+          </cell>
+          <cell r="AN128">
+            <v>69</v>
+          </cell>
+          <cell r="AO128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ128">
+            <v>4</v>
+          </cell>
+          <cell r="AR128">
+            <v>28</v>
+          </cell>
+          <cell r="AS128">
+            <v>33</v>
+          </cell>
+          <cell r="AT128">
+            <v>36</v>
+          </cell>
+          <cell r="AU128">
+            <v>69</v>
+          </cell>
+          <cell r="AV128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX128">
+            <v>4</v>
+          </cell>
+          <cell r="AY128">
+            <v>28</v>
+          </cell>
+          <cell r="AZ128">
+            <v>33</v>
+          </cell>
+          <cell r="BA128">
+            <v>36</v>
+          </cell>
+          <cell r="BB128">
+            <v>69</v>
+          </cell>
+          <cell r="BC128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD128" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>MMS18-20/127</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C129">
+            <v>0</v>
+          </cell>
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+          <cell r="E129">
+            <v>0</v>
+          </cell>
+          <cell r="F129" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G129" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H129">
+            <v>4</v>
+          </cell>
+          <cell r="I129">
+            <v>0</v>
+          </cell>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
+          <cell r="K129">
+            <v>0</v>
+          </cell>
+          <cell r="L129">
+            <v>0</v>
+          </cell>
+          <cell r="M129" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N129" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O129">
+            <v>4</v>
+          </cell>
+          <cell r="P129">
+            <v>0</v>
+          </cell>
+          <cell r="Q129">
+            <v>0</v>
+          </cell>
+          <cell r="R129">
+            <v>0</v>
+          </cell>
+          <cell r="S129">
+            <v>0</v>
+          </cell>
+          <cell r="T129" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U129" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V129">
+            <v>4</v>
+          </cell>
+          <cell r="W129">
+            <v>0</v>
+          </cell>
+          <cell r="X129">
+            <v>32</v>
+          </cell>
+          <cell r="Y129">
+            <v>39</v>
+          </cell>
+          <cell r="Z129">
+            <v>71</v>
+          </cell>
+          <cell r="AA129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC129">
+            <v>4</v>
+          </cell>
+          <cell r="AD129">
+            <v>32</v>
+          </cell>
+          <cell r="AE129">
+            <v>32</v>
+          </cell>
+          <cell r="AF129">
+            <v>39</v>
+          </cell>
+          <cell r="AG129">
+            <v>71</v>
+          </cell>
+          <cell r="AH129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ129">
+            <v>4</v>
+          </cell>
+          <cell r="AK129">
+            <v>32</v>
+          </cell>
+          <cell r="AL129">
+            <v>32</v>
+          </cell>
+          <cell r="AM129">
+            <v>39</v>
+          </cell>
+          <cell r="AN129">
+            <v>71</v>
+          </cell>
+          <cell r="AO129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ129">
+            <v>4</v>
+          </cell>
+          <cell r="AR129">
+            <v>32</v>
+          </cell>
+          <cell r="AS129">
+            <v>32</v>
+          </cell>
+          <cell r="AT129">
+            <v>39</v>
+          </cell>
+          <cell r="AU129">
+            <v>71</v>
+          </cell>
+          <cell r="AV129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX129">
+            <v>4</v>
+          </cell>
+          <cell r="AY129">
+            <v>32</v>
+          </cell>
+          <cell r="AZ129">
+            <v>32</v>
+          </cell>
+          <cell r="BA129">
+            <v>39</v>
+          </cell>
+          <cell r="BB129">
+            <v>71</v>
+          </cell>
+          <cell r="BC129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD129" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>MMS18-20/128</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C130">
+            <v>0</v>
+          </cell>
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+          <cell r="E130">
+            <v>0</v>
+          </cell>
+          <cell r="F130" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G130" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H130">
+            <v>4</v>
+          </cell>
+          <cell r="I130">
+            <v>0</v>
+          </cell>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
+          <cell r="K130">
+            <v>0</v>
+          </cell>
+          <cell r="L130">
+            <v>0</v>
+          </cell>
+          <cell r="M130" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N130" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O130">
+            <v>4</v>
+          </cell>
+          <cell r="P130">
+            <v>0</v>
+          </cell>
+          <cell r="Q130">
+            <v>0</v>
+          </cell>
+          <cell r="R130">
+            <v>0</v>
+          </cell>
+          <cell r="S130">
+            <v>0</v>
+          </cell>
+          <cell r="T130" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U130" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V130">
+            <v>4</v>
+          </cell>
+          <cell r="W130">
+            <v>0</v>
+          </cell>
+          <cell r="X130">
+            <v>30</v>
+          </cell>
+          <cell r="Y130">
+            <v>41</v>
+          </cell>
+          <cell r="Z130">
+            <v>71</v>
+          </cell>
+          <cell r="AA130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC130">
+            <v>4</v>
+          </cell>
+          <cell r="AD130">
+            <v>32</v>
+          </cell>
+          <cell r="AE130">
+            <v>30</v>
+          </cell>
+          <cell r="AF130">
+            <v>41</v>
+          </cell>
+          <cell r="AG130">
+            <v>71</v>
+          </cell>
+          <cell r="AH130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ130">
+            <v>4</v>
+          </cell>
+          <cell r="AK130">
+            <v>32</v>
+          </cell>
+          <cell r="AL130">
+            <v>30</v>
+          </cell>
+          <cell r="AM130">
+            <v>41</v>
+          </cell>
+          <cell r="AN130">
+            <v>71</v>
+          </cell>
+          <cell r="AO130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ130">
+            <v>4</v>
+          </cell>
+          <cell r="AR130">
+            <v>32</v>
+          </cell>
+          <cell r="AS130">
+            <v>30</v>
+          </cell>
+          <cell r="AT130">
+            <v>41</v>
+          </cell>
+          <cell r="AU130">
+            <v>71</v>
+          </cell>
+          <cell r="AV130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX130">
+            <v>4</v>
+          </cell>
+          <cell r="AY130">
+            <v>32</v>
+          </cell>
+          <cell r="AZ130">
+            <v>30</v>
+          </cell>
+          <cell r="BA130">
+            <v>41</v>
+          </cell>
+          <cell r="BB130">
+            <v>71</v>
+          </cell>
+          <cell r="BC130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD130" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>MMS18-20/129</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C131">
+            <v>0</v>
+          </cell>
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+          <cell r="E131">
+            <v>0</v>
+          </cell>
+          <cell r="F131" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G131" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H131">
+            <v>4</v>
+          </cell>
+          <cell r="I131">
+            <v>0</v>
+          </cell>
+          <cell r="J131">
+            <v>0</v>
+          </cell>
+          <cell r="K131">
+            <v>0</v>
+          </cell>
+          <cell r="L131">
+            <v>0</v>
+          </cell>
+          <cell r="M131" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N131" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O131">
+            <v>4</v>
+          </cell>
+          <cell r="P131">
+            <v>0</v>
+          </cell>
+          <cell r="Q131">
+            <v>0</v>
+          </cell>
+          <cell r="R131">
+            <v>0</v>
+          </cell>
+          <cell r="S131">
+            <v>0</v>
+          </cell>
+          <cell r="T131" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U131" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V131">
+            <v>4</v>
+          </cell>
+          <cell r="W131">
+            <v>0</v>
+          </cell>
+          <cell r="X131">
+            <v>29</v>
+          </cell>
+          <cell r="Y131">
+            <v>46</v>
+          </cell>
+          <cell r="Z131">
+            <v>75</v>
+          </cell>
+          <cell r="AA131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AB131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AC131">
+            <v>4</v>
+          </cell>
+          <cell r="AD131">
+            <v>36</v>
+          </cell>
+          <cell r="AE131">
+            <v>29</v>
+          </cell>
+          <cell r="AF131">
+            <v>46</v>
+          </cell>
+          <cell r="AG131">
+            <v>75</v>
+          </cell>
+          <cell r="AH131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AI131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AJ131">
+            <v>4</v>
+          </cell>
+          <cell r="AK131">
+            <v>36</v>
+          </cell>
+          <cell r="AL131">
+            <v>29</v>
+          </cell>
+          <cell r="AM131">
+            <v>46</v>
+          </cell>
+          <cell r="AN131">
+            <v>75</v>
+          </cell>
+          <cell r="AO131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AP131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AQ131">
+            <v>4</v>
+          </cell>
+          <cell r="AR131">
+            <v>36</v>
+          </cell>
+          <cell r="AS131">
+            <v>29</v>
+          </cell>
+          <cell r="AT131">
+            <v>46</v>
+          </cell>
+          <cell r="AU131">
+            <v>75</v>
+          </cell>
+          <cell r="AV131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AW131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AX131">
+            <v>4</v>
+          </cell>
+          <cell r="AY131">
+            <v>36</v>
+          </cell>
+          <cell r="AZ131">
+            <v>29</v>
+          </cell>
+          <cell r="BA131">
+            <v>46</v>
+          </cell>
+          <cell r="BB131">
+            <v>75</v>
+          </cell>
+          <cell r="BC131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="BD131" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>MMS18-20/130</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C132">
+            <v>0</v>
+          </cell>
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+          <cell r="E132">
+            <v>0</v>
+          </cell>
+          <cell r="F132" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G132" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H132">
+            <v>4</v>
+          </cell>
+          <cell r="I132">
+            <v>0</v>
+          </cell>
+          <cell r="J132">
+            <v>0</v>
+          </cell>
+          <cell r="K132">
+            <v>0</v>
+          </cell>
+          <cell r="L132">
+            <v>0</v>
+          </cell>
+          <cell r="M132" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N132" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O132">
+            <v>4</v>
+          </cell>
+          <cell r="P132">
+            <v>0</v>
+          </cell>
+          <cell r="Q132">
+            <v>0</v>
+          </cell>
+          <cell r="R132">
+            <v>0</v>
+          </cell>
+          <cell r="S132">
+            <v>0</v>
+          </cell>
+          <cell r="T132" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U132" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V132">
+            <v>4</v>
+          </cell>
+          <cell r="W132">
+            <v>0</v>
+          </cell>
+          <cell r="X132">
+            <v>27</v>
+          </cell>
+          <cell r="Y132">
+            <v>40</v>
+          </cell>
+          <cell r="Z132">
+            <v>67</v>
+          </cell>
+          <cell r="AA132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC132">
+            <v>4</v>
+          </cell>
+          <cell r="AD132">
+            <v>28</v>
+          </cell>
+          <cell r="AE132">
+            <v>27</v>
+          </cell>
+          <cell r="AF132">
+            <v>40</v>
+          </cell>
+          <cell r="AG132">
+            <v>67</v>
+          </cell>
+          <cell r="AH132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ132">
+            <v>4</v>
+          </cell>
+          <cell r="AK132">
+            <v>28</v>
+          </cell>
+          <cell r="AL132">
+            <v>27</v>
+          </cell>
+          <cell r="AM132">
+            <v>40</v>
+          </cell>
+          <cell r="AN132">
+            <v>67</v>
+          </cell>
+          <cell r="AO132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ132">
+            <v>4</v>
+          </cell>
+          <cell r="AR132">
+            <v>28</v>
+          </cell>
+          <cell r="AS132">
+            <v>27</v>
+          </cell>
+          <cell r="AT132">
+            <v>40</v>
+          </cell>
+          <cell r="AU132">
+            <v>67</v>
+          </cell>
+          <cell r="AV132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX132">
+            <v>4</v>
+          </cell>
+          <cell r="AY132">
+            <v>28</v>
+          </cell>
+          <cell r="AZ132">
+            <v>27</v>
+          </cell>
+          <cell r="BA132">
+            <v>40</v>
+          </cell>
+          <cell r="BB132">
+            <v>67</v>
+          </cell>
+          <cell r="BC132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD132" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>MMS18-20/131</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C133">
+            <v>0</v>
+          </cell>
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+          <cell r="E133">
+            <v>0</v>
+          </cell>
+          <cell r="F133" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G133" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H133">
+            <v>4</v>
+          </cell>
+          <cell r="I133">
+            <v>0</v>
+          </cell>
+          <cell r="J133">
+            <v>0</v>
+          </cell>
+          <cell r="K133">
+            <v>0</v>
+          </cell>
+          <cell r="L133">
+            <v>0</v>
+          </cell>
+          <cell r="M133" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N133" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O133">
+            <v>4</v>
+          </cell>
+          <cell r="P133">
+            <v>0</v>
+          </cell>
+          <cell r="Q133">
+            <v>0</v>
+          </cell>
+          <cell r="R133">
+            <v>0</v>
+          </cell>
+          <cell r="S133">
+            <v>0</v>
+          </cell>
+          <cell r="T133" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U133" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V133">
+            <v>4</v>
+          </cell>
+          <cell r="W133">
+            <v>0</v>
+          </cell>
+          <cell r="X133">
+            <v>31</v>
+          </cell>
+          <cell r="Y133">
+            <v>38</v>
+          </cell>
+          <cell r="Z133">
+            <v>69</v>
+          </cell>
+          <cell r="AA133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC133">
+            <v>4</v>
+          </cell>
+          <cell r="AD133">
+            <v>28</v>
+          </cell>
+          <cell r="AE133">
+            <v>31</v>
+          </cell>
+          <cell r="AF133">
+            <v>38</v>
+          </cell>
+          <cell r="AG133">
+            <v>69</v>
+          </cell>
+          <cell r="AH133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ133">
+            <v>4</v>
+          </cell>
+          <cell r="AK133">
+            <v>28</v>
+          </cell>
+          <cell r="AL133">
+            <v>31</v>
+          </cell>
+          <cell r="AM133">
+            <v>38</v>
+          </cell>
+          <cell r="AN133">
+            <v>69</v>
+          </cell>
+          <cell r="AO133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ133">
+            <v>4</v>
+          </cell>
+          <cell r="AR133">
+            <v>28</v>
+          </cell>
+          <cell r="AS133">
+            <v>31</v>
+          </cell>
+          <cell r="AT133">
+            <v>38</v>
+          </cell>
+          <cell r="AU133">
+            <v>69</v>
+          </cell>
+          <cell r="AV133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX133">
+            <v>4</v>
+          </cell>
+          <cell r="AY133">
+            <v>28</v>
+          </cell>
+          <cell r="AZ133">
+            <v>31</v>
+          </cell>
+          <cell r="BA133">
+            <v>38</v>
+          </cell>
+          <cell r="BB133">
+            <v>69</v>
+          </cell>
+          <cell r="BC133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD133" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>MMS18-20/132</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C134">
+            <v>0</v>
+          </cell>
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
+          <cell r="F134" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G134" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H134">
+            <v>4</v>
+          </cell>
+          <cell r="I134">
+            <v>0</v>
+          </cell>
+          <cell r="J134">
+            <v>0</v>
+          </cell>
+          <cell r="K134">
+            <v>0</v>
+          </cell>
+          <cell r="L134">
+            <v>0</v>
+          </cell>
+          <cell r="M134" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N134" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O134">
+            <v>4</v>
+          </cell>
+          <cell r="P134">
+            <v>0</v>
+          </cell>
+          <cell r="Q134">
+            <v>0</v>
+          </cell>
+          <cell r="R134">
+            <v>0</v>
+          </cell>
+          <cell r="S134">
+            <v>0</v>
+          </cell>
+          <cell r="T134" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U134" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V134">
+            <v>4</v>
+          </cell>
+          <cell r="W134">
+            <v>0</v>
+          </cell>
+          <cell r="X134">
+            <v>28</v>
+          </cell>
+          <cell r="Y134">
+            <v>37</v>
+          </cell>
+          <cell r="Z134">
+            <v>65</v>
+          </cell>
+          <cell r="AA134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC134">
+            <v>4</v>
+          </cell>
+          <cell r="AD134">
+            <v>28</v>
+          </cell>
+          <cell r="AE134">
+            <v>28</v>
+          </cell>
+          <cell r="AF134">
+            <v>37</v>
+          </cell>
+          <cell r="AG134">
+            <v>65</v>
+          </cell>
+          <cell r="AH134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ134">
+            <v>4</v>
+          </cell>
+          <cell r="AK134">
+            <v>28</v>
+          </cell>
+          <cell r="AL134">
+            <v>28</v>
+          </cell>
+          <cell r="AM134">
+            <v>37</v>
+          </cell>
+          <cell r="AN134">
+            <v>65</v>
+          </cell>
+          <cell r="AO134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ134">
+            <v>4</v>
+          </cell>
+          <cell r="AR134">
+            <v>28</v>
+          </cell>
+          <cell r="AS134">
+            <v>28</v>
+          </cell>
+          <cell r="AT134">
+            <v>37</v>
+          </cell>
+          <cell r="AU134">
+            <v>65</v>
+          </cell>
+          <cell r="AV134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX134">
+            <v>4</v>
+          </cell>
+          <cell r="AY134">
+            <v>28</v>
+          </cell>
+          <cell r="AZ134">
+            <v>28</v>
+          </cell>
+          <cell r="BA134">
+            <v>37</v>
+          </cell>
+          <cell r="BB134">
+            <v>65</v>
+          </cell>
+          <cell r="BC134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD134" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>MMS18-20/133</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
+          </cell>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
+          <cell r="F135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H135">
+            <v>4</v>
+          </cell>
+          <cell r="I135">
+            <v>0</v>
+          </cell>
+          <cell r="J135">
+            <v>0</v>
+          </cell>
+          <cell r="K135">
+            <v>0</v>
+          </cell>
+          <cell r="L135">
+            <v>0</v>
+          </cell>
+          <cell r="M135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O135">
+            <v>4</v>
+          </cell>
+          <cell r="P135">
+            <v>0</v>
+          </cell>
+          <cell r="Q135">
+            <v>0</v>
+          </cell>
+          <cell r="R135">
+            <v>0</v>
+          </cell>
+          <cell r="S135">
+            <v>0</v>
+          </cell>
+          <cell r="T135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V135">
+            <v>4</v>
+          </cell>
+          <cell r="W135">
+            <v>0</v>
+          </cell>
+          <cell r="X135">
+            <v>0</v>
+          </cell>
+          <cell r="Y135">
+            <v>0</v>
+          </cell>
+          <cell r="Z135">
+            <v>0</v>
+          </cell>
+          <cell r="AA135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AB135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AC135">
+            <v>4</v>
+          </cell>
+          <cell r="AD135">
+            <v>0</v>
+          </cell>
+          <cell r="AE135">
+            <v>0</v>
+          </cell>
+          <cell r="AF135">
+            <v>0</v>
+          </cell>
+          <cell r="AG135">
+            <v>0</v>
+          </cell>
+          <cell r="AH135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AI135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AJ135">
+            <v>4</v>
+          </cell>
+          <cell r="AK135">
+            <v>0</v>
+          </cell>
+          <cell r="AL135">
+            <v>0</v>
+          </cell>
+          <cell r="AM135">
+            <v>0</v>
+          </cell>
+          <cell r="AN135">
+            <v>0</v>
+          </cell>
+          <cell r="AO135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AP135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AQ135">
+            <v>4</v>
+          </cell>
+          <cell r="AR135">
+            <v>0</v>
+          </cell>
+          <cell r="AS135">
+            <v>0</v>
+          </cell>
+          <cell r="AT135">
+            <v>0</v>
+          </cell>
+          <cell r="AU135">
+            <v>0</v>
+          </cell>
+          <cell r="AV135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AW135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AX135">
+            <v>4</v>
+          </cell>
+          <cell r="AY135">
+            <v>0</v>
+          </cell>
+          <cell r="AZ135">
+            <v>0</v>
+          </cell>
+          <cell r="BA135">
+            <v>0</v>
+          </cell>
+          <cell r="BB135">
+            <v>0</v>
+          </cell>
+          <cell r="BC135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="BD135" t="str">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -27127,7 +29441,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="8" t="str">
         <f>VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
-        <v>CHAWHAN SAMTA VIJAY SUNITA</v>
+        <v>ADEPU CHETAN GANESH ARCHANA</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -27344,8 +29658,8 @@
         <v>20</v>
       </c>
       <c r="G17" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$C$122,3,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$C$135,3,0)</f>
+        <v>40</v>
       </c>
       <c r="H17" s="3">
         <v>60</v>
@@ -27354,8 +29668,8 @@
         <v>30</v>
       </c>
       <c r="J17" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$D$122,4,0)</f>
-        <v>40</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$D$135,4,0)</f>
+        <v>60</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -27365,25 +29679,25 @@
       </c>
       <c r="M17" s="3">
         <f>SUM(G17,J17)</f>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>4</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$F$122,6,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$F$135,6,0)</f>
+        <v>O</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$G$122,7,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$G$135,7,0)</f>
+        <v>10</v>
       </c>
       <c r="R17" s="3">
         <f>P17*Q17</f>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -27402,8 +29716,8 @@
         <v>20</v>
       </c>
       <c r="G18" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$J$122,10,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$J$135,10,0)</f>
+        <v>40</v>
       </c>
       <c r="H18" s="3">
         <v>60</v>
@@ -27412,8 +29726,8 @@
         <v>30</v>
       </c>
       <c r="J18" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$K$122,11,0)</f>
-        <v>40</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$K$135,11,0)</f>
+        <v>60</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
@@ -27423,25 +29737,25 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ref="M18:M24" si="0">SUM(G18,J18)</f>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$M$122,13,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$M$135,13,0)</f>
+        <v>O</v>
       </c>
       <c r="P18" s="3">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$N$122,14,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$N$135,14,0)</f>
+        <v>10</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:R24" si="1">P18*Q18</f>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -27460,8 +29774,8 @@
         <v>20</v>
       </c>
       <c r="G19" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Q$122,17,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Q$135,17,0)</f>
+        <v>30</v>
       </c>
       <c r="H19" s="3">
         <v>60</v>
@@ -27470,7 +29784,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$R$122,18,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$R$135,18,0)</f>
         <v>40</v>
       </c>
       <c r="K19" s="3">
@@ -27481,25 +29795,25 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N19" s="3">
         <v>4</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$T$122,20,0)</f>
-        <v>A</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$T$135,20,0)</f>
+        <v>A+</v>
       </c>
       <c r="P19" s="3">
         <v>4</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$U$122,21,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$U$135,21,0)</f>
+        <v>8</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -27518,8 +29832,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$X$122,24,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$X$135,24,0)</f>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>60</v>
@@ -27528,7 +29842,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Y$122,25,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Y$135,25,0)</f>
         <v>40</v>
       </c>
       <c r="K20" s="3">
@@ -27539,25 +29853,25 @@
       </c>
       <c r="M20" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N20" s="3">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AA$122,27,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AA$135,27,0)</f>
+        <v>A</v>
       </c>
       <c r="P20" s="3">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AB$122,28,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AB$135,28,0)</f>
+        <v>8</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -27576,8 +29890,8 @@
         <v>20</v>
       </c>
       <c r="G21" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AE$122,31,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AE$135,31,0)</f>
+        <v>30</v>
       </c>
       <c r="H21" s="3">
         <v>60</v>
@@ -27586,7 +29900,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AF$122,32,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AF$135,32,0)</f>
         <v>40</v>
       </c>
       <c r="K21" s="3">
@@ -27597,25 +29911,25 @@
       </c>
       <c r="M21" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N21" s="3">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AH$122,34,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AH$135,34,0)</f>
+        <v>A</v>
       </c>
       <c r="P21" s="3">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AI$122,35,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AI$135,35,0)</f>
+        <v>8</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -27634,8 +29948,8 @@
         <v>20</v>
       </c>
       <c r="G22" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AL$122,38,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AL$135,38,0)</f>
+        <v>30</v>
       </c>
       <c r="H22" s="3">
         <v>60</v>
@@ -27644,7 +29958,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AM$122,39,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AM$135,39,0)</f>
         <v>40</v>
       </c>
       <c r="K22" s="3">
@@ -27655,25 +29969,25 @@
       </c>
       <c r="M22" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N22" s="3">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AO$122,41,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AO$135,41,0)</f>
+        <v>A</v>
       </c>
       <c r="P22" s="3">
         <v>4</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AP$122,42,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AP$135,42,0)</f>
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -27692,8 +30006,8 @@
         <v>20</v>
       </c>
       <c r="G23" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AS$122,45,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AS$135,45,0)</f>
+        <v>30</v>
       </c>
       <c r="H23" s="3">
         <v>60</v>
@@ -27702,7 +30016,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AT$122,46,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AT$135,46,0)</f>
         <v>40</v>
       </c>
       <c r="K23" s="3">
@@ -27713,25 +30027,25 @@
       </c>
       <c r="M23" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N23" s="3">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AV$122,48,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AV$135,48,0)</f>
+        <v>A</v>
       </c>
       <c r="P23" s="3">
         <v>4</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AW$122,49,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AW$135,49,0)</f>
+        <v>8</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -27750,8 +30064,8 @@
         <v>20</v>
       </c>
       <c r="G24" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AZ$122,52,0)</f>
-        <v>27</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AZ$135,52,0)</f>
+        <v>30</v>
       </c>
       <c r="H24" s="3">
         <v>60</v>
@@ -27760,7 +30074,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BA$122,53,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BA$135,53,0)</f>
         <v>40</v>
       </c>
       <c r="K24" s="3">
@@ -27771,25 +30085,25 @@
       </c>
       <c r="M24" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N24" s="3">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BC$122,55,0)</f>
-        <v>B+</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BC$135,55,0)</f>
+        <v>A</v>
       </c>
       <c r="P24" s="3">
         <v>4</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BD$122,56,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BD$135,56,0)</f>
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -27811,7 +30125,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(M17:M24)</f>
-        <v>536</v>
+        <v>620</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="7"/>
@@ -27821,7 +30135,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <f>SUM(R17:R24)</f>
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -27843,17 +30157,17 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BN$122,66,0)</f>
-        <v>SGPI : 7</v>
+        <v>SGPI : 8.5</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="13" t="str">
         <f>"Overall Grade:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BO$122,67,0)</f>
-        <v>Overall Grade:B+</v>
+        <v>Overall Grade:A+</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="6" t="str">
         <f>"Range:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BP$122,68,0)</f>
-        <v>Range:65-69.99</v>
+        <v>Range:70.74.99</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -27930,6 +30244,12 @@
       <c r="S32" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="9VfSymIJn/CA3Sa6U35zcuAXutJdqD09C4Iv1uzdrxabyyjMra9CY177uWo/Sv+2sDvbjUqAY73j1rPnh3Us1g==" saltValue="QUzrKix66lNFesi3D62EOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="D11" name="Held In"/>
+    <protectedRange sqref="D13" name="Seat No."/>
+    <protectedRange sqref="A27" name="Declared Date"/>
+  </protectedRanges>
   <mergeCells count="39">
     <mergeCell ref="A1:R5"/>
     <mergeCell ref="A7:R7"/>

--- a/Backup/Grade Card - Backup.xlsx
+++ b/Backup/Grade Card - Backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D70EB4-3B72-4023-BFE5-62958018F6AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA58EF5-C240-4AFD-B600-0F160BAC8C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -362,39 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,11 +389,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2112"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2113"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2027,34 +2027,34 @@
             <v>ADEPU CHETAN GANESH ARCHANA</v>
           </cell>
           <cell r="C3">
-            <v>40</v>
+            <v>10</v>
           </cell>
           <cell r="D3">
             <v>60</v>
           </cell>
           <cell r="E3">
-            <v>100</v>
+            <v>70</v>
           </cell>
           <cell r="F3" t="str">
-            <v>O</v>
+            <v>A</v>
           </cell>
           <cell r="G3" t="str">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="H3">
             <v>4</v>
           </cell>
           <cell r="I3">
-            <v>40</v>
+            <v>32</v>
           </cell>
           <cell r="J3">
-            <v>40</v>
+            <v>38</v>
           </cell>
           <cell r="K3">
-            <v>60</v>
+            <v>56</v>
           </cell>
           <cell r="L3">
-            <v>100</v>
+            <v>94</v>
           </cell>
           <cell r="M3" t="str">
             <v>O</v>
@@ -2195,31 +2195,31 @@
             <v>32</v>
           </cell>
           <cell r="BG3">
-            <v>260</v>
+            <v>228</v>
           </cell>
           <cell r="BH3">
-            <v>360</v>
+            <v>356</v>
           </cell>
           <cell r="BI3">
-            <v>620</v>
+            <v>584</v>
           </cell>
           <cell r="BJ3">
-            <v>68</v>
+            <v>66</v>
           </cell>
           <cell r="BK3">
-            <v>272</v>
+            <v>264</v>
           </cell>
           <cell r="BL3">
-            <v>77.5</v>
+            <v>73</v>
           </cell>
           <cell r="BM3" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN3">
-            <v>8.5</v>
+            <v>8.25</v>
           </cell>
           <cell r="BO3" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="BP3" t="str">
             <v>70.74.99</v>
@@ -2648,22 +2648,22 @@
             <v>31</v>
           </cell>
           <cell r="D6">
-            <v>45</v>
+            <v>20</v>
           </cell>
           <cell r="E6">
-            <v>76</v>
+            <v>51</v>
           </cell>
           <cell r="F6" t="str">
-            <v>A+</v>
+            <v>P</v>
           </cell>
           <cell r="G6" t="str">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="H6">
             <v>4</v>
           </cell>
           <cell r="I6">
-            <v>36</v>
+            <v>16</v>
           </cell>
           <cell r="J6">
             <v>31</v>
@@ -2816,31 +2816,31 @@
             <v>248</v>
           </cell>
           <cell r="BH6">
-            <v>360</v>
+            <v>335</v>
           </cell>
           <cell r="BI6">
-            <v>608</v>
+            <v>583</v>
           </cell>
           <cell r="BJ6">
-            <v>72</v>
+            <v>67</v>
           </cell>
           <cell r="BK6">
-            <v>288</v>
+            <v>268</v>
           </cell>
           <cell r="BL6">
-            <v>76</v>
+            <v>72.875</v>
           </cell>
           <cell r="BM6" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN6">
-            <v>9</v>
+            <v>8.375</v>
           </cell>
           <cell r="BO6" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="BP6" t="str">
-            <v>75-79-99</v>
+            <v>70.74.99</v>
           </cell>
         </row>
         <row r="7">
@@ -6353,202 +6353,202 @@
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="E24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="F24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="G24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H24">
             <v>4</v>
           </cell>
           <cell r="I24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="J24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="K24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="L24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="M24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="N24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O24">
             <v>4</v>
           </cell>
           <cell r="P24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Q24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="R24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="S24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="T24" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="U24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="V24">
             <v>4</v>
           </cell>
           <cell r="W24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="X24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Y24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="Z24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AA24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC24">
             <v>4</v>
           </cell>
           <cell r="AD24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AF24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AG24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AH24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ24">
             <v>4</v>
           </cell>
           <cell r="AK24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AM24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AN24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AO24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ24">
             <v>4</v>
           </cell>
           <cell r="AR24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AT24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AU24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AV24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX24">
             <v>4</v>
           </cell>
           <cell r="AY24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BA24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="BB24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BC24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BE24">
             <v>4</v>
           </cell>
           <cell r="BF24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BG24">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BH24">
-            <v>296</v>
+            <v>0</v>
           </cell>
           <cell r="BI24">
-            <v>520</v>
+            <v>0</v>
           </cell>
           <cell r="BJ24">
-            <v>56</v>
+            <v>0</v>
           </cell>
           <cell r="BK24">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BL24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BM24" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN24">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BO24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BP24" t="str">
-            <v>65-69.99</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="25">
@@ -10679,202 +10679,202 @@
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="E45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="F45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="G45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H45">
             <v>4</v>
           </cell>
           <cell r="I45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="J45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="K45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="L45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="M45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="N45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O45">
             <v>4</v>
           </cell>
           <cell r="P45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Q45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="R45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="S45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="T45" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="U45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="V45">
             <v>4</v>
           </cell>
           <cell r="W45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="X45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="Z45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC45">
             <v>4</v>
           </cell>
           <cell r="AD45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AG45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ45">
             <v>4</v>
           </cell>
           <cell r="AK45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AN45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ45">
             <v>4</v>
           </cell>
           <cell r="AR45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AU45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX45">
             <v>4</v>
           </cell>
           <cell r="AY45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="BB45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BE45">
             <v>4</v>
           </cell>
           <cell r="BF45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BG45">
-            <v>248</v>
+            <v>0</v>
           </cell>
           <cell r="BH45">
-            <v>304</v>
+            <v>0</v>
           </cell>
           <cell r="BI45">
-            <v>552</v>
+            <v>0</v>
           </cell>
           <cell r="BJ45">
-            <v>56</v>
+            <v>0</v>
           </cell>
           <cell r="BK45">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BL45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BM45" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN45">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BO45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BP45" t="str">
-            <v>65-69.99</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="46">
@@ -26338,22 +26338,22 @@
             <v>27</v>
           </cell>
           <cell r="D121">
-            <v>40</v>
+            <v>36</v>
           </cell>
           <cell r="E121">
-            <v>67</v>
+            <v>63</v>
           </cell>
           <cell r="F121" t="str">
-            <v>B+</v>
+            <v>B</v>
           </cell>
           <cell r="G121" t="str">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="H121">
             <v>4</v>
           </cell>
           <cell r="I121">
-            <v>28</v>
+            <v>24</v>
           </cell>
           <cell r="J121">
             <v>27</v>
@@ -26506,25 +26506,25 @@
             <v>216</v>
           </cell>
           <cell r="BH121">
-            <v>320</v>
+            <v>316</v>
           </cell>
           <cell r="BI121">
-            <v>536</v>
+            <v>532</v>
           </cell>
           <cell r="BJ121">
-            <v>56</v>
+            <v>55</v>
           </cell>
           <cell r="BK121">
-            <v>224</v>
+            <v>220</v>
           </cell>
           <cell r="BL121">
-            <v>67</v>
+            <v>66.5</v>
           </cell>
           <cell r="BM121" t="str">
             <v>Successful</v>
           </cell>
           <cell r="BN121">
-            <v>7</v>
+            <v>6.875</v>
           </cell>
           <cell r="BO121" t="str">
             <v>B+</v>
@@ -26541,202 +26541,202 @@
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="E122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="F122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="G122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H122">
             <v>4</v>
           </cell>
           <cell r="I122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="J122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="K122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="L122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="M122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="N122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O122">
             <v>4</v>
           </cell>
           <cell r="P122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Q122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="R122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="S122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="T122" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="U122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="V122">
             <v>4</v>
           </cell>
           <cell r="W122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="X122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="Z122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC122">
             <v>4</v>
           </cell>
           <cell r="AD122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AG122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ122">
             <v>4</v>
           </cell>
           <cell r="AK122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AN122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ122">
             <v>4</v>
           </cell>
           <cell r="AR122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AU122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX122">
             <v>4</v>
           </cell>
           <cell r="AY122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="BB122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BE122">
             <v>4</v>
           </cell>
           <cell r="BF122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BG122">
-            <v>248</v>
+            <v>0</v>
           </cell>
           <cell r="BH122">
-            <v>304</v>
+            <v>0</v>
           </cell>
           <cell r="BI122">
-            <v>552</v>
+            <v>0</v>
           </cell>
           <cell r="BJ122">
-            <v>56</v>
+            <v>0</v>
           </cell>
           <cell r="BK122">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BL122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BM122" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN122">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BO122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BP122" t="str">
-            <v>65-69.99</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="123">
@@ -26810,103 +26810,103 @@
             <v>0</v>
           </cell>
           <cell r="X123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Y123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="Z123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AA123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC123">
             <v>4</v>
           </cell>
           <cell r="AD123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AF123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AG123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AH123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ123">
             <v>4</v>
           </cell>
           <cell r="AK123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AM123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AN123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AO123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ123">
             <v>4</v>
           </cell>
           <cell r="AR123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AT123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AU123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AV123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX123">
             <v>4</v>
           </cell>
           <cell r="AY123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BA123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="BB123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BC123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
@@ -26980,103 +26980,103 @@
             <v>0</v>
           </cell>
           <cell r="X124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="Y124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="Z124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AA124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC124">
             <v>4</v>
           </cell>
           <cell r="AD124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AF124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AG124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AH124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ124">
             <v>4</v>
           </cell>
           <cell r="AK124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AM124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AN124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AO124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ124">
             <v>4</v>
           </cell>
           <cell r="AR124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AT124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AU124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AV124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX124">
             <v>4</v>
           </cell>
           <cell r="AY124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="BA124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="BB124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="BC124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
@@ -27150,103 +27150,103 @@
             <v>0</v>
           </cell>
           <cell r="X125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="Y125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="Z125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AA125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AB125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AC125">
             <v>4</v>
           </cell>
           <cell r="AD125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AE125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AF125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="AG125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AH125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AI125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AJ125">
             <v>4</v>
           </cell>
           <cell r="AK125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AL125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AM125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="AN125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AO125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AP125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AQ125">
             <v>4</v>
           </cell>
           <cell r="AR125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AS125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AT125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="AU125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AV125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AW125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AX125">
             <v>4</v>
           </cell>
           <cell r="AY125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AZ125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="BA125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="BB125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="BC125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="BD125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
@@ -27320,103 +27320,103 @@
             <v>0</v>
           </cell>
           <cell r="X126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="Y126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="Z126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AA126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC126">
             <v>4</v>
           </cell>
           <cell r="AD126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AF126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="AG126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AH126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ126">
             <v>4</v>
           </cell>
           <cell r="AK126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AM126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="AN126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AO126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ126">
             <v>4</v>
           </cell>
           <cell r="AR126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AT126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="AU126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AV126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX126">
             <v>4</v>
           </cell>
           <cell r="AY126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="BA126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="BB126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="BC126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
@@ -27490,103 +27490,103 @@
             <v>0</v>
           </cell>
           <cell r="X127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="Z127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AA127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AB127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AC127">
             <v>4</v>
           </cell>
           <cell r="AD127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AE127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="AG127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AH127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AI127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AJ127">
             <v>4</v>
           </cell>
           <cell r="AK127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AL127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="AN127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AO127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AP127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AQ127">
             <v>4</v>
           </cell>
           <cell r="AR127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AS127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="AU127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AV127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AW127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AX127">
             <v>4</v>
           </cell>
           <cell r="AY127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AZ127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="BB127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="BC127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="BD127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
@@ -27660,103 +27660,103 @@
             <v>0</v>
           </cell>
           <cell r="X128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="Y128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="Z128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC128">
             <v>4</v>
           </cell>
           <cell r="AD128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AF128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AG128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ128">
             <v>4</v>
           </cell>
           <cell r="AK128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AM128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AN128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ128">
             <v>4</v>
           </cell>
           <cell r="AR128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AT128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AU128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX128">
             <v>4</v>
           </cell>
           <cell r="AY128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="BA128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="BB128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
@@ -27830,103 +27830,103 @@
             <v>0</v>
           </cell>
           <cell r="X129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="Y129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="Z129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AA129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC129">
             <v>4</v>
           </cell>
           <cell r="AD129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AF129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="AG129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AH129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ129">
             <v>4</v>
           </cell>
           <cell r="AK129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AM129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="AN129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AO129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ129">
             <v>4</v>
           </cell>
           <cell r="AR129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AT129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="AU129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AV129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX129">
             <v>4</v>
           </cell>
           <cell r="AY129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="BA129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="BB129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="BC129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
@@ -28000,103 +28000,103 @@
             <v>0</v>
           </cell>
           <cell r="X130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="Y130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="Z130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AA130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC130">
             <v>4</v>
           </cell>
           <cell r="AD130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AF130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="AG130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AH130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ130">
             <v>4</v>
           </cell>
           <cell r="AK130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AM130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="AN130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AO130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ130">
             <v>4</v>
           </cell>
           <cell r="AR130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AT130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="AU130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AV130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX130">
             <v>4</v>
           </cell>
           <cell r="AY130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="BA130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="BB130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="BC130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
@@ -28170,103 +28170,103 @@
             <v>0</v>
           </cell>
           <cell r="X131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="Y131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="Z131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AA131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AB131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AC131">
             <v>4</v>
           </cell>
           <cell r="AD131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AE131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AF131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="AG131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AH131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AI131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AJ131">
             <v>4</v>
           </cell>
           <cell r="AK131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AL131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AM131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="AN131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AO131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AP131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AQ131">
             <v>4</v>
           </cell>
           <cell r="AR131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AS131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AT131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="AU131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AV131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AW131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AX131">
             <v>4</v>
           </cell>
           <cell r="AY131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AZ131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="BA131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="BB131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="BC131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="BD131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
@@ -28340,103 +28340,103 @@
             <v>0</v>
           </cell>
           <cell r="X132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="Y132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="Z132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AA132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC132">
             <v>4</v>
           </cell>
           <cell r="AD132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AF132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AG132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AH132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ132">
             <v>4</v>
           </cell>
           <cell r="AK132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AM132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AN132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AO132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ132">
             <v>4</v>
           </cell>
           <cell r="AR132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AT132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AU132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AV132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX132">
             <v>4</v>
           </cell>
           <cell r="AY132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="BA132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="BB132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="BC132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
@@ -28510,103 +28510,103 @@
             <v>0</v>
           </cell>
           <cell r="X133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="Z133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC133">
             <v>4</v>
           </cell>
           <cell r="AD133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AG133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ133">
             <v>4</v>
           </cell>
           <cell r="AK133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AN133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ133">
             <v>4</v>
           </cell>
           <cell r="AR133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AU133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX133">
             <v>4</v>
           </cell>
           <cell r="AY133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="BB133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
@@ -28680,103 +28680,103 @@
             <v>0</v>
           </cell>
           <cell r="X134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Y134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="Z134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AA134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC134">
             <v>4</v>
           </cell>
           <cell r="AD134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AF134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AG134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AH134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ134">
             <v>4</v>
           </cell>
           <cell r="AK134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AM134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AN134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AO134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ134">
             <v>4</v>
           </cell>
           <cell r="AR134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AT134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AU134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AV134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX134">
             <v>4</v>
           </cell>
           <cell r="AY134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BA134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="BB134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BC134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="135">
@@ -29277,104 +29277,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -29392,223 +29392,223 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="str">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27" t="str">
         <f>VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="15" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
@@ -29636,11 +29636,11 @@
       <c r="M16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -29659,7 +29659,7 @@
       </c>
       <c r="G17" s="3">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$C$135,3,0)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>60</v>
@@ -29679,25 +29679,25 @@
       </c>
       <c r="M17" s="3">
         <f>SUM(G17,J17)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N17" s="3">
         <v>4</v>
       </c>
       <c r="O17" s="3" t="str">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$F$135,6,0)</f>
-        <v>O</v>
+        <v>A</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
       </c>
       <c r="Q17" s="3" t="str">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$G$135,7,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R17" s="3">
         <f>P17*Q17</f>
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="G18" s="3">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$J$135,10,0)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3">
         <v>60</v>
@@ -29727,7 +29727,7 @@
       </c>
       <c r="J18" s="3">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$K$135,11,0)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
@@ -29737,7 +29737,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ref="M18:M24" si="0">SUM(G18,J18)</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N18" s="3">
         <v>4</v>
@@ -30107,25 +30107,25 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="3">
         <v>800</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(M17:M24)</f>
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="7"/>
@@ -30135,84 +30135,84 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <f>SUM(R17:R24)</f>
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="24" t="str">
         <f>"Remarks : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BM$122,65,0)</f>
-        <v>Remarks : Successful</v>
+        <v>Remarks : Unsuccessful</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12" t="str">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BN$122,66,0)</f>
-        <v>SGPI : 8.5</v>
+        <v>SGPI : 8.25</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13" t="str">
+      <c r="O26" s="24"/>
+      <c r="P26" s="23" t="str">
         <f>"Overall Grade:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BO$122,67,0)</f>
-        <v>Overall Grade:A+</v>
+        <v>Overall Grade:A</v>
       </c>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="6" t="str">
         <f>"Range:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range:70.74.99</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -30244,13 +30244,36 @@
       <c r="S32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9VfSymIJn/CA3Sa6U35zcuAXutJdqD09C4Iv1uzdrxabyyjMra9CY177uWo/Sv+2sDvbjUqAY73j1rPnh3Us1g==" saltValue="QUzrKix66lNFesi3D62EOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nrblBHGUWzE+3MHaEBCJdBWws+2awurDuSo28c3l//Yk1yCV0gCkjLQVqzmBtyZ4lWKBYUrGx9a52Cg25uXkYQ==" saltValue="w4Aa6P7QvsaCwoVwwmCJ/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D11" name="Held In"/>
     <protectedRange sqref="D13" name="Seat No."/>
     <protectedRange sqref="A27" name="Declared Date"/>
   </protectedRanges>
   <mergeCells count="39">
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="A1:R5"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:P8"/>
@@ -30267,29 +30290,6 @@
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:D16"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
